--- a/data/trans_dic/IP18A05-Edad-trans_dic.xlsx
+++ b/data/trans_dic/IP18A05-Edad-trans_dic.xlsx
@@ -786,7 +786,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>5/9</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,95%</t>
+          <t>0,7%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,54%</t>
+          <t>2,61%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>2,46%</t>
+          <t>1,01%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>6,43%</t>
+          <t>3,42%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>1,1%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>0,6%</t>
+          <t>1,66%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>0,61%</t>
+          <t>1,73%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>3,21%</t>
+          <t>1,69%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>1,02%</t>
+          <t>0,36%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>0,56%</t>
+          <t>2,15%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>1,54%</t>
+          <t>1,36%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>5,1%</t>
+          <t>2,59%</t>
         </is>
       </c>
     </row>
@@ -864,69 +864,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,21; 2,65</t>
+          <t>0,0; 2,1</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,63</t>
+          <t>1,27; 4,86</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,01; 4,69</t>
+          <t>0,3; 2,75</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>2,22; 16,18</t>
+          <t>0,0; 10,96</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,34; 2,97</t>
+          <t>0; 0,71</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,83</t>
+          <t>0,62; 3,68</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,19</t>
+          <t>0,58; 3,46</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 11,65</t>
+          <t>0,0; 9,24</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0,4; 2,22</t>
+          <t>0,0; 1,1</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0,14; 1,28</t>
+          <t>1,17; 3,46</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0,7; 2,83</t>
+          <t>0,69; 2,64</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>1,99; 11,01</t>
+          <t>0,77; 7,16</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>10/15</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,7%</t>
+          <t>0,95%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>2,61%</t>
+          <t>0,54%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>1,01%</t>
+          <t>2,46%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>3,42%</t>
+          <t>6,43%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,1%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>1,66%</t>
+          <t>0,6%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>1,73%</t>
+          <t>0,61%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>1,69%</t>
+          <t>3,21%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,36%</t>
+          <t>1,02%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>2,15%</t>
+          <t>0,56%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>1,36%</t>
+          <t>1,54%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>2,59%</t>
+          <t>5,1%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,1</t>
+          <t>0,21; 2,65</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,27; 4,86</t>
+          <t>0,0; 1,63</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,3; 2,75</t>
+          <t>1,01; 4,69</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 10,96</t>
+          <t>2,22; 16,18</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,71</t>
+          <t>0,34; 2,97</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,62; 3,68</t>
+          <t>0,0; 1,83</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,58; 3,46</t>
+          <t>0,0; 2,19</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 9,24</t>
+          <t>0,0; 11,65</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,1</t>
+          <t>0,4; 2,22</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>1,17; 3,46</t>
+          <t>0,14; 1,28</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0,69; 2,64</t>
+          <t>0,7; 2,83</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0,77; 7,16</t>
+          <t>1,99; 11,01</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/IP18A05-Edad-trans_dic.xlsx
+++ b/data/trans_dic/IP18A05-Edad-trans_dic.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>0/4</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -661,57 +661,57 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,28%</t>
+          <t>0,46%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,64%</t>
+          <t>1,09%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>1,41%</t>
+          <t>2,19%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,66%</t>
+          <t>0,7%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,3%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>1,21%</t>
+          <t>0,43%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>4,07%</t>
+          <t>2,56%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,33%</t>
+          <t>0,34%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>0,29%</t>
+          <t>0,23%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>0,92%</t>
+          <t>0,75%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>2,61%</t>
+          <t>2,37%</t>
         </is>
       </c>
     </row>
@@ -724,69 +724,69 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,64</t>
+          <t>0; 1,18</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
+          <t>0,0; 2,77</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 3,84</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 10,69</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 3,48</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>0; 0,91</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 2,13</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 13,3</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
           <t>0,0; 1,7</t>
         </is>
       </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 2,24</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 6,0</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 2,29</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 1,33</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>0,28; 3,49</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 15,49</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 1,17</t>
-        </is>
-      </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,01</t>
+          <t>0,0; 1,15</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0,3; 2,33</t>
+          <t>0,22; 1,96</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0,75; 7,33</t>
+          <t>0,0; 7,42</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>3-7</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,7%</t>
+          <t>0,59%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>2,61%</t>
+          <t>1,73%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>1,01%</t>
+          <t>0,97%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>3,42%</t>
+          <t>4,0%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,26%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>1,66%</t>
+          <t>0,94%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>1,73%</t>
+          <t>1,9%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>1,69%</t>
+          <t>3,91%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>0,36%</t>
+          <t>0,43%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>2,15%</t>
+          <t>1,36%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>1,36%</t>
+          <t>1,39%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>2,59%</t>
+          <t>3,96%</t>
         </is>
       </c>
     </row>
@@ -864,69 +864,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,1</t>
+          <t>0,0; 1,93</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1,27; 4,86</t>
+          <t>0,81; 3,52</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,3; 2,75</t>
+          <t>0,29; 2,59</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 10,96</t>
+          <t>0,0; 12,31</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,71</t>
+          <t>0,0; 1,56</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,62; 3,68</t>
+          <t>0,29; 2,48</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,58; 3,46</t>
+          <t>0,65; 4,43</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 9,24</t>
+          <t>0,0; 12,68</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,1</t>
+          <t>0,13; 1,13</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>1,17; 3,46</t>
+          <t>0,61; 2,44</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0,69; 2,64</t>
+          <t>0,61; 2,69</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0,77; 7,16</t>
+          <t>0,98; 9,34</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>8-11</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,95%</t>
+          <t>0,83%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,54%</t>
+          <t>1,02%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>2,46%</t>
+          <t>0,42%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>6,43%</t>
+          <t>5,15%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>1,1%</t>
+          <t>1,45%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,6%</t>
+          <t>2,37%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,61%</t>
+          <t>1,45%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>3,21%</t>
+          <t>2,69%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>1,02%</t>
+          <t>1,12%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>0,56%</t>
+          <t>1,69%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>1,54%</t>
+          <t>0,94%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>5,1%</t>
+          <t>4,01%</t>
         </is>
       </c>
     </row>
@@ -1004,69 +1004,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,21; 2,65</t>
+          <t>0,0; 3,84</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,63</t>
+          <t>0,0; 3,6</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,01; 4,69</t>
+          <t>0,0; 2,13</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>2,22; 16,18</t>
+          <t>0,0; 18,33</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,34; 2,97</t>
+          <t>0,0; 4,45</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,83</t>
+          <t>0,81; 5,24</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,19</t>
+          <t>0,38; 3,58</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 11,65</t>
+          <t>0,0; 11,6</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0,4; 2,22</t>
+          <t>0,33; 3,06</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0,14; 1,28</t>
+          <t>0,7; 3,33</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0,7; 2,83</t>
+          <t>0,34; 1,99</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>1,99; 11,01</t>
+          <t>1,22; 11,21</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>12-15</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,56%</t>
+          <t>0,7%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>1,11%</t>
+          <t>0,82%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>1,42%</t>
+          <t>3,57%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>4,42%</t>
+          <t>5,1%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,62%</t>
+          <t>0,55%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,85%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>1,16%</t>
+          <t>0,51%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>2,88%</t>
+          <t>2,15%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>0,59%</t>
+          <t>0,63%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>0,98%</t>
+          <t>0,42%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>1,29%</t>
+          <t>2,01%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>3,74%</t>
+          <t>3,98%</t>
         </is>
       </c>
     </row>
@@ -1144,68 +1144,216 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,22; 1,4</t>
+          <t>0,0; 2,46</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,58; 1,87</t>
+          <t>0,0; 2,85</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,76; 2,46</t>
+          <t>1,54; 7,36</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>2,0; 10,03</t>
+          <t>0,0; 19,36</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0,24; 1,45</t>
+          <t>0,0; 3,16</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0,4; 1,63</t>
+          <t>0; 0,89</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0,65; 2,18</t>
+          <t>0,0; 2,56</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>1,03; 6,94</t>
+          <t>0,0; 11,64</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0,31; 1,08</t>
+          <t>0,15; 1,82</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>0,61; 1,51</t>
+          <t>0,0; 1,3</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>0,83; 1,89</t>
+          <t>0,86; 4,0</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>2,1; 6,52</t>
+          <t>0,86; 12,2</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>0,56%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>1,11%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>1,42%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>4,42%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>0,62%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>0,85%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>1,16%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>2,88%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>0,59%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>0,98%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>1,29%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>3,74%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>0,19; 1,28</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>0,51; 1,94</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>0,8; 2,4</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>1,88; 8,98</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>0,22; 1,37</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>0,4; 1,61</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>0,61; 2,02</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>0,99; 6,15</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>0,28; 1,04</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>0,6; 1,5</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>0,79; 1,9</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>2,06; 6,75</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>

--- a/data/trans_dic/IP18A05-Edad-trans_dic.xlsx
+++ b/data/trans_dic/IP18A05-Edad-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -729,22 +729,22 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,77</t>
+          <t>0,0; 2,3</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,84</t>
+          <t>0,0; 3,74</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 10,69</t>
+          <t>0,0; 12,42</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,48</t>
+          <t>0,0; 3,44</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -754,32 +754,32 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,13</t>
+          <t>0,0; 1,76</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 13,3</t>
+          <t>0,0; 11,41</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,7</t>
+          <t>0,0; 1,69</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,15</t>
+          <t>0,0; 1,28</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0,22; 1,96</t>
+          <t>0,22; 2,1</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 7,42</t>
+          <t>0,0; 8,08</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,93</t>
+          <t>0,0; 1,79</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,81; 3,52</t>
+          <t>0,6; 3,49</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,29; 2,59</t>
+          <t>0,28; 2,6</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 12,31</t>
+          <t>0,0; 12,73</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,56</t>
+          <t>0,0; 1,31</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,29; 2,48</t>
+          <t>0,3; 2,79</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,65; 4,43</t>
+          <t>0,65; 4,42</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 12,68</t>
+          <t>0,0; 12,36</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0,13; 1,13</t>
+          <t>0,13; 1,17</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0,61; 2,44</t>
+          <t>0,61; 2,43</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0,61; 2,69</t>
+          <t>0,65; 2,82</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0,98; 9,34</t>
+          <t>0,98; 9,79</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,84</t>
+          <t>0,0; 4,3</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,6</t>
+          <t>0,0; 3,56</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,13</t>
+          <t>0,0; 2,15</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 18,33</t>
+          <t>0,0; 16,45</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,45</t>
+          <t>0,0; 4,4</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,81; 5,24</t>
+          <t>0,87; 5,56</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,38; 3,58</t>
+          <t>0,35; 3,31</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 11,6</t>
+          <t>0,0; 11,28</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0,33; 3,06</t>
+          <t>0,33; 3,05</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0,7; 3,33</t>
+          <t>0,71; 3,37</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0,34; 1,99</t>
+          <t>0,36; 2,07</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>1,22; 11,21</t>
+          <t>1,22; 10,93</t>
         </is>
       </c>
     </row>
@@ -1144,27 +1144,27 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,46</t>
+          <t>0,0; 2,48</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,85</t>
+          <t>0,0; 2,86</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>1,54; 7,36</t>
+          <t>1,53; 7,77</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 19,36</t>
+          <t>0,0; 19,21</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,16</t>
+          <t>0,0; 3,29</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
@@ -1174,32 +1174,32 @@
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,56</t>
+          <t>0,0; 2,52</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 11,64</t>
+          <t>0,0; 11,12</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0,15; 1,82</t>
+          <t>0,15; 1,87</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,3</t>
+          <t>0,0; 1,47</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>0,86; 4,0</t>
+          <t>0,78; 4,06</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0,86; 12,2</t>
+          <t>0,83; 11,96</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,19; 1,28</t>
+          <t>0,19; 1,24</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,51; 1,94</t>
+          <t>0,59; 1,88</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,8; 2,4</t>
+          <t>0,77; 2,4</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>1,88; 8,98</t>
+          <t>2,15; 9,75</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0,22; 1,37</t>
+          <t>0,23; 1,31</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,4; 1,61</t>
+          <t>0,4; 1,58</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,61; 2,02</t>
+          <t>0,64; 1,98</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0,99; 6,15</t>
+          <t>0,91; 6,11</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0,28; 1,04</t>
+          <t>0,3; 1,1</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>0,6; 1,5</t>
+          <t>0,62; 1,47</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>0,79; 1,9</t>
+          <t>0,84; 1,9</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>2,06; 6,75</t>
+          <t>1,94; 6,74</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/IP18A05-Edad-trans_dic.xlsx
+++ b/data/trans_dic/IP18A05-Edad-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -540,7 +540,7 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
@@ -548,7 +548,7 @@
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="H1" s="3" t="n"/>
@@ -656,42 +656,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>0,7%</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>0,43%</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>2,55%</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
         <is>
           <t>0,46%</t>
         </is>
       </c>
-      <c r="E4" s="2" t="inlineStr">
+      <c r="I4" s="2" t="inlineStr">
         <is>
           <t>1,09%</t>
         </is>
       </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>2,19%</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>0,7%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>0,43%</t>
-        </is>
-      </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>2,56%</t>
+          <t>2,15%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>2,37%</t>
+          <t>2,34%</t>
         </is>
       </c>
     </row>
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>0,0; 2,82</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>0; 0,91</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 2,82</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 12,85</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
           <t>0; 1,18</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
+      <c r="H5" s="2" t="inlineStr">
         <is>
           <t>0,0; 2,3</t>
         </is>
       </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 3,74</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 12,42</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 3,44</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,91</t>
-        </is>
-      </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,76</t>
+          <t>0,0; 3,56</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 11,41</t>
+          <t>0,0; 10,1</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,69</t>
+          <t>0,0; 1,88</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,28</t>
+          <t>0,0; 1,23</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0,22; 2,1</t>
+          <t>0,22; 2,06</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 8,08</t>
+          <t>0,0; 7,73</t>
         </is>
       </c>
     </row>
@@ -796,42 +796,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>0,26%</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>0,94%</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>1,9%</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>4,09%</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
           <t>0,59%</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
+      <c r="H6" s="2" t="inlineStr">
         <is>
           <t>1,73%</t>
         </is>
       </c>
-      <c r="E6" s="2" t="inlineStr">
+      <c r="I6" s="2" t="inlineStr">
         <is>
           <t>0,97%</t>
         </is>
       </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>4,0%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>0,26%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>0,94%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>1,9%</t>
-        </is>
-      </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>3,91%</t>
+          <t>3,89%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>3,96%</t>
+          <t>3,98%</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,79</t>
+          <t>0,0; 1,16</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,6; 3,49</t>
+          <t>0,29; 2,53</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,28; 2,6</t>
+          <t>0,64; 4,25</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 12,73</t>
+          <t>0,0; 14,35</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,31</t>
+          <t>0,0; 2,08</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,3; 2,79</t>
+          <t>0,6; 3,67</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,65; 4,42</t>
+          <t>0,28; 2,72</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 12,36</t>
+          <t>0,0; 14,2</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0,13; 1,17</t>
+          <t>0,13; 1,27</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0,61; 2,43</t>
+          <t>0,64; 2,51</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0,65; 2,82</t>
+          <t>0,6; 2,69</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0,98; 9,79</t>
+          <t>1,03; 9,93</t>
         </is>
       </c>
     </row>
@@ -936,42 +936,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>1,45%</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>2,37%</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>1,45%</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>2,52%</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
           <t>0,83%</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
+      <c r="H8" s="2" t="inlineStr">
         <is>
           <t>1,02%</t>
         </is>
       </c>
-      <c r="E8" s="2" t="inlineStr">
+      <c r="I8" s="2" t="inlineStr">
         <is>
           <t>0,42%</t>
         </is>
       </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>5,15%</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>1,45%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>2,37%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>1,45%</t>
-        </is>
-      </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>2,69%</t>
+          <t>5,21%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -991,7 +991,7 @@
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>4,01%</t>
+          <t>3,97%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,3</t>
+          <t>0,0; 4,99</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,56</t>
+          <t>0,83; 4,91</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,15</t>
+          <t>0,37; 3,38</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 16,45</t>
+          <t>0,0; 11,12</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,4</t>
+          <t>0,0; 4,12</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,87; 5,56</t>
+          <t>0,0; 3,22</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,35; 3,31</t>
+          <t>0,0; 2,16</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 11,28</t>
+          <t>0,0; 18,53</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0,33; 3,05</t>
+          <t>0,33; 3,4</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0,71; 3,37</t>
+          <t>0,69; 3,36</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0,36; 2,07</t>
+          <t>0,36; 2,26</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>1,22; 10,93</t>
+          <t>1,17; 10,57</t>
         </is>
       </c>
     </row>
@@ -1076,42 +1076,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>0,55%</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>0,51%</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>2,2%</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
           <t>0,7%</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
+      <c r="H10" s="2" t="inlineStr">
         <is>
           <t>0,82%</t>
         </is>
       </c>
-      <c r="E10" s="2" t="inlineStr">
+      <c r="I10" s="2" t="inlineStr">
         <is>
           <t>3,57%</t>
         </is>
       </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>5,1%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>0,55%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>0,51%</t>
-        </is>
-      </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>2,15%</t>
+          <t>4,91%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>3,98%</t>
+          <t>3,92%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,48</t>
+          <t>0,0; 3,11</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,86</t>
+          <t>0; 0,89</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>1,53; 7,77</t>
+          <t>0,0; 2,07</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 19,21</t>
+          <t>0,0; 11,12</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,29</t>
+          <t>0,0; 2,46</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,89</t>
+          <t>0,0; 2,82</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,52</t>
+          <t>1,53; 7,15</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 11,12</t>
+          <t>0,0; 20,09</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0,15; 1,87</t>
+          <t>0,15; 1,76</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,47</t>
+          <t>0,0; 1,68</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>0,78; 4,06</t>
+          <t>0,85; 3,89</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0,83; 11,96</t>
+          <t>0,84; 13,87</t>
         </is>
       </c>
     </row>
@@ -1216,42 +1216,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>0,62%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>0,85%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>1,16%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>2,89%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
           <t>0,56%</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
+      <c r="H12" s="2" t="inlineStr">
         <is>
           <t>1,11%</t>
         </is>
       </c>
-      <c r="E12" s="2" t="inlineStr">
+      <c r="I12" s="2" t="inlineStr">
         <is>
           <t>1,42%</t>
         </is>
       </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>4,42%</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>0,62%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>0,85%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>1,16%</t>
-        </is>
-      </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>2,88%</t>
+          <t>4,34%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
@@ -1271,7 +1271,7 @@
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>3,74%</t>
+          <t>3,71%</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,19; 1,24</t>
+          <t>0,24; 1,45</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,59; 1,88</t>
+          <t>0,4; 1,63</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,77; 2,4</t>
+          <t>0,65; 2,18</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>2,15; 9,75</t>
+          <t>1,01; 7,0</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0,23; 1,31</t>
+          <t>0,22; 1,4</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,4; 1,58</t>
+          <t>0,58; 1,87</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,64; 1,98</t>
+          <t>0,76; 2,46</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0,91; 6,11</t>
+          <t>1,94; 9,85</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0,3; 1,1</t>
+          <t>0,31; 1,08</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>0,62; 1,47</t>
+          <t>0,61; 1,51</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>0,84; 1,9</t>
+          <t>0,83; 1,89</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>1,94; 6,74</t>
+          <t>2,08; 6,5</t>
         </is>
       </c>
     </row>
